--- a/Supplementary Table 3.xlsx
+++ b/Supplementary Table 3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unioxfordnexus-my.sharepoint.com/personal/arch0355_ox_ac_uk/Documents/RESEARCH PROJECTS/Hazelnut Pilot/Paper/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unioxfordnexus-my.sharepoint.com/personal/arch0355_ox_ac_uk/Documents/RESEARCH PROJECTS/Hazelnut Pilot/Paper/Submission/Hazelnut-project/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="676" documentId="8_{6A6526B8-24A4-2041-9FBA-09416C5FEF69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F1848110-BBDF-9B42-80B7-7D7F2887AA2C}"/>
   <bookViews>
-    <workbookView xWindow="3400" yWindow="500" windowWidth="27640" windowHeight="16940" activeTab="8" xr2:uid="{B7DD04A5-6A7F-1E4F-80F0-318F3A149B30}"/>
+    <workbookView xWindow="6480" yWindow="500" windowWidth="27640" windowHeight="16940" activeTab="8" xr2:uid="{B7DD04A5-6A7F-1E4F-80F0-318F3A149B30}"/>
   </bookViews>
   <sheets>
     <sheet name="Data-Session 1" sheetId="2" r:id="rId1"/>
@@ -8125,7 +8125,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B643FC7-C04A-AB4E-A881-CA83B5E9259F}">
   <dimension ref="A1:T73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
@@ -45371,7 +45371,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6717CE97-A903-3B47-8B15-A16B1CFAB294}">
   <dimension ref="A1:L234"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -49533,6 +49533,21 @@
     <row r="234" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="I87:J87"/>
+    <mergeCell ref="E118:F118"/>
+    <mergeCell ref="G118:H118"/>
+    <mergeCell ref="I118:J118"/>
     <mergeCell ref="E207:F207"/>
     <mergeCell ref="G207:H207"/>
     <mergeCell ref="I207:J207"/>
@@ -49542,21 +49557,6 @@
     <mergeCell ref="E178:F178"/>
     <mergeCell ref="G178:H178"/>
     <mergeCell ref="I178:J178"/>
-    <mergeCell ref="E87:F87"/>
-    <mergeCell ref="G87:H87"/>
-    <mergeCell ref="I87:J87"/>
-    <mergeCell ref="E118:F118"/>
-    <mergeCell ref="G118:H118"/>
-    <mergeCell ref="I118:J118"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
